--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02822911</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Benefit of Carbohydrate Deficient Transferrin to Detect Chronic Alcohol Abuse in the Elderly. A French Multicentered Prospective Interventional Study.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Caesar</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02822209</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of a Coordinating Nurse in a Personalized Care Program on Quality of Care, Coordination of the Actors and on Quality of Life for Patients With Lung Cancer. A French Randomized Monocentric Prospective Study</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>EVIDEC</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02821637</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Impact of an Effort Rehabilitation Program for Overweight or Obese Children and Teens on Quality of Life and Wellbeing: A French Monocentric Prospective Study</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>PRESEVAL</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02946372</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Transposition of Internal Limiting Membrane in the Treatment of Macular Holes. A Descriptive Pilot Study</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>ILMT</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT03177096</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Impact of the Continuous Measurement of Blood Glucose on Insulin Pump on Child Quality of Life With Type 1 Diabetes. A French Monocentric Prospective Study (IM-CAPT)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>IM-CAPT</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02970357</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of a Therapeutic Education Program for Children With Type 1 Diabetes. A French Monocentric Prospective Study. Pilot Study</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>PROGETE</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT03594851</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Evaluation of the Benefits of Individualized Advice Administration on Quality of Sleep for the Elderly Living at Home Prospective, Monocentric and Open Study</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>CISPAD</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT05007249</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Benefit of the Chalaxie Pedagogical Tool in the Management of Overweight or Obese Children With Intellectual Disability : a Pilot Monocentric Prospective Study.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>CHALAXIE</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -892,36 +937,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT05373849</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Aromatherapy on the Well-being of Hospital Healthcare Professionals: a Randomized Cross-over Trial</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>HERBAS</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -940,36 +990,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT04529395</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Impact of Aromatherapy on the Delirium of Patients in Intensive Care Unit</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>AROMADELI</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -55,10 +55,10 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>pas de résultat ni de publication</t>

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -55,7 +55,7 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
+    <t>⚠️</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -58,10 +58,10 @@
     <t>⚠️</t>
   </si>
   <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
   </si>
   <si>
     <t>NCT02822911</t>

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,25 +40,13 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT02822911</t>
@@ -536,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,367 +555,235 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
         <v>49</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -52,33 +52,33 @@
     <t>NCT02822911</t>
   </si>
   <si>
+    <t>NCT02821637</t>
+  </si>
+  <si>
     <t>NCT02822209</t>
   </si>
   <si>
-    <t>NCT02821637</t>
-  </si>
-  <si>
     <t>NCT02946372</t>
   </si>
   <si>
+    <t>NCT02970357</t>
+  </si>
+  <si>
     <t>NCT03177096</t>
   </si>
   <si>
-    <t>NCT02970357</t>
-  </si>
-  <si>
     <t>NCT03594851</t>
   </si>
   <si>
     <t>NCT05007249</t>
   </si>
   <si>
+    <t>NCT04529395</t>
+  </si>
+  <si>
     <t>NCT05373849</t>
   </si>
   <si>
-    <t>NCT04529395</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -97,73 +97,73 @@
     <t>Benefit of Carbohydrate Deficient Transferrin to Detect Chronic Alcohol Abuse in the Elderly. A French Multicentered Prospective Interventional Study.</t>
   </si>
   <si>
+    <t>Impact of an Effort Rehabilitation Program for Overweight or Obese Children and Teens on Quality of Life and Wellbeing: A French Monocentric Prospective Study</t>
+  </si>
+  <si>
     <t>Evaluation of the Impact of a Coordinating Nurse in a Personalized Care Program on Quality of Care, Coordination of the Actors and on Quality of Life for Patients With Lung Cancer. A French Randomized Monocentric Prospective Study</t>
   </si>
   <si>
-    <t>Impact of an Effort Rehabilitation Program for Overweight or Obese Children and Teens on Quality of Life and Wellbeing: A French Monocentric Prospective Study</t>
-  </si>
-  <si>
     <t>Transposition of Internal Limiting Membrane in the Treatment of Macular Holes. A Descriptive Pilot Study</t>
   </si>
   <si>
+    <t>Evaluation of the Impact of a Therapeutic Education Program for Children With Type 1 Diabetes. A French Monocentric Prospective Study. Pilot Study</t>
+  </si>
+  <si>
     <t>Impact of the Continuous Measurement of Blood Glucose on Insulin Pump on Child Quality of Life With Type 1 Diabetes. A French Monocentric Prospective Study (IM-CAPT)</t>
   </si>
   <si>
-    <t>Evaluation of the Impact of a Therapeutic Education Program for Children With Type 1 Diabetes. A French Monocentric Prospective Study. Pilot Study</t>
-  </si>
-  <si>
     <t>Evaluation of the Benefits of Individualized Advice Administration on Quality of Sleep for the Elderly Living at Home Prospective, Monocentric and Open Study</t>
   </si>
   <si>
     <t>Benefit of the Chalaxie Pedagogical Tool in the Management of Overweight or Obese Children With Intellectual Disability : a Pilot Monocentric Prospective Study.</t>
   </si>
   <si>
+    <t>Impact of Aromatherapy on the Delirium of Patients in Intensive Care Unit</t>
+  </si>
+  <si>
     <t>Evaluation of the Efficacy of Aromatherapy on the Well-being of Hospital Healthcare Professionals: a Randomized Cross-over Trial</t>
   </si>
   <si>
-    <t>Impact of Aromatherapy on the Delirium of Patients in Intensive Care Unit</t>
-  </si>
-  <si>
     <t>Caesar</t>
   </si>
   <si>
+    <t>PRESEVAL</t>
+  </si>
+  <si>
     <t>EVIDEC</t>
   </si>
   <si>
-    <t>PRESEVAL</t>
-  </si>
-  <si>
     <t>ILMT</t>
   </si>
   <si>
+    <t>PROGETE</t>
+  </si>
+  <si>
     <t>IM-CAPT</t>
   </si>
   <si>
-    <t>PROGETE</t>
-  </si>
-  <si>
     <t>CISPAD</t>
   </si>
   <si>
     <t>CHALAXIE</t>
   </si>
   <si>
+    <t>AROMADELI</t>
+  </si>
+  <si>
     <t>HERBAS</t>
   </si>
   <si>
-    <t>AROMADELI</t>
-  </si>
-  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>DIETARY_SUPPLEMENT</t>
-  </si>
-  <si>
-    <t>OTHER</t>
   </si>
 </sst>
 </file>

--- a/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage2/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -46,18 +46,18 @@
     <t>4</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>4 : pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT02822911</t>
   </si>
   <si>
+    <t>NCT02822209</t>
+  </si>
+  <si>
     <t>NCT02821637</t>
   </si>
   <si>
-    <t>NCT02822209</t>
-  </si>
-  <si>
     <t>NCT02946372</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>Benefit of Carbohydrate Deficient Transferrin to Detect Chronic Alcohol Abuse in the Elderly. A French Multicentered Prospective Interventional Study.</t>
   </si>
   <si>
+    <t>Evaluation of the Impact of a Coordinating Nurse in a Personalized Care Program on Quality of Care, Coordination of the Actors and on Quality of Life for Patients With Lung Cancer. A French Randomized Monocentric Prospective Study</t>
+  </si>
+  <si>
     <t>Impact of an Effort Rehabilitation Program for Overweight or Obese Children and Teens on Quality of Life and Wellbeing: A French Monocentric Prospective Study</t>
   </si>
   <si>
-    <t>Evaluation of the Impact of a Coordinating Nurse in a Personalized Care Program on Quality of Care, Coordination of the Actors and on Quality of Life for Patients With Lung Cancer. A French Randomized Monocentric Prospective Study</t>
-  </si>
-  <si>
     <t>Transposition of Internal Limiting Membrane in the Treatment of Macular Holes. A Descriptive Pilot Study</t>
   </si>
   <si>
@@ -127,12 +127,12 @@
     <t>Caesar</t>
   </si>
   <si>
+    <t>EVIDEC</t>
+  </si>
+  <si>
     <t>PRESEVAL</t>
   </si>
   <si>
-    <t>EVIDEC</t>
-  </si>
-  <si>
     <t>ILMT</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>HERBAS</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -599,7 +599,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -645,7 +645,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -691,7 +691,7 @@
         <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -714,7 +714,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -737,7 +737,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
